--- a/me/1.training_sass/10-exe-list.xlsx
+++ b/me/1.training_sass/10-exe-list.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EE35AD-D08E-4B69-AB8F-B088DD7644C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE622BE-BC43-45BD-93A1-577BEC552D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prepare" sheetId="1" r:id="rId1"/>
+    <sheet name="Clearfix" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>Trang cung cấp hình ảnh: https://placeholder.com/</t>
   </si>
@@ -34,16 +35,207 @@
   </si>
   <si>
     <t>https://via.placeholder.com/500</t>
+  </si>
+  <si>
+    <t>構成</t>
+  </si>
+  <si>
+    <t>sass-gruntjs-bootstrap</t>
+  </si>
+  <si>
+    <t>1.training_sass</t>
+  </si>
+  <si>
+    <t>→Add project, Output Folder</t>
+  </si>
+  <si>
+    <t>scss</t>
+  </si>
+  <si>
+    <t>style-01.scss</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>10-exe-list</t>
+  </si>
+  <si>
+    <t>_mixin.scss</t>
+  </si>
+  <si>
+    <t>_reset.scss</t>
+  </si>
+  <si>
+    <t>_variable.scss</t>
+  </si>
+  <si>
+    <t>    &amp;:after {</t>
+  </si>
+  <si>
+    <t>        content: "";</t>
+  </si>
+  <si>
+    <t>        display: table;</t>
+  </si>
+  <si>
+    <t>        clear: both;</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>* {</t>
+  </si>
+  <si>
+    <t>    margin: 0px;</t>
+  </si>
+  <si>
+    <t>    padding: 0px;</t>
+  </si>
+  <si>
+    <t>$color-border: #F0682D;</t>
+  </si>
+  <si>
+    <t>@import "reset";</t>
+  </si>
+  <si>
+    <t>@import "variable";</t>
+  </si>
+  <si>
+    <t>@import "mixin";</t>
+  </si>
+  <si>
+    <t>div.list-images {</t>
+  </si>
+  <si>
+    <t>    margin: 40px;</t>
+  </si>
+  <si>
+    <t>    border: 2px solid $color-border;</t>
+  </si>
+  <si>
+    <t>    div.image {</t>
+  </si>
+  <si>
+    <t>        float: left;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        img {   </t>
+  </si>
+  <si>
+    <t>            display: block;</t>
+  </si>
+  <si>
+    <t>            width: 100%;</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>    @include clearfix;</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html lang="en"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;head&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;meta charset="utf-8"&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;title&gt;Exe List&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;link rel="stylesheet" type="text/css" href="./style-01.css"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/head&gt;</t>
+  </si>
+  <si>
+    <t>&lt;body&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;div class="list-images"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;div class="image"&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;img src="https://via.placeholder.com/500" alt="placehold"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/body&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/html&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">@mixin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clearfix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <t>browser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -57,7 +249,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -65,13 +257,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,6 +410,214 @@
         <a:xfrm>
           <a:off x="676275" y="847725"/>
           <a:ext cx="8971428" cy="6219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F55456E3-8C92-EF91-0094-0669A69A5891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="2638425"/>
+          <a:ext cx="523875" cy="4086225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA592578-A61C-A0F1-3F2C-D56D937970D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="4352925"/>
+          <a:ext cx="361950" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC06891-F08D-59C0-8405-363D390CC292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="5505450"/>
+          <a:ext cx="504825" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>455619</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>189690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A1FB20-58B6-1148-C673-E90DD59E0FC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18669000"/>
+          <a:ext cx="12647619" cy="6476190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -403,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
@@ -428,4 +919,914 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C49BC83-9CEB-4CE7-A291-53ECD8C8B9AE}">
+  <dimension ref="A2:I98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="10"/>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="9"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/1.training_sass/10-exe-list.xlsx
+++ b/me/1.training_sass/10-exe-list.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE622BE-BC43-45BD-93A1-577BEC552D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55F7F94-9CAF-4D6F-9917-81409BFE8FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prepare" sheetId="1" r:id="rId1"/>
     <sheet name="Clearfix" sheetId="2" r:id="rId2"/>
+    <sheet name="SetWidth" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="104">
   <si>
     <t>Trang cung cấp hình ảnh: https://placeholder.com/</t>
   </si>
@@ -219,6 +220,213 @@
   </si>
   <si>
     <t>browser</t>
+  </si>
+  <si>
+    <t>Hiển thị 5 hình ảnh trên một dòng</t>
+  </si>
+  <si>
+    <t>Các hình ảnh cách nhau 1%(của div.list-images)</t>
+  </si>
+  <si>
+    <t>A: Chiều rộng của 1 hình ảnh</t>
+  </si>
+  <si>
+    <t>A + 1 + A + 1 + A + 1 + A + 1 + A = 100</t>
+  </si>
+  <si>
+    <t>5A + 4 = 100</t>
+  </si>
+  <si>
+    <t>A = (100-4)/5 = 19.2%</t>
+  </si>
+  <si>
+    <t>@mixin setWidth($pColum, $pColumMargin  ) {</t>
+  </si>
+  <si>
+    <t>    width: (100% - ($pColum - 1) * $pColumMargin) / $pColum;</t>
+  </si>
+  <si>
+    <t>    margin-right: $pColumMargin;</t>
+  </si>
+  <si>
+    <t>        margin-right: 0%;</t>
+  </si>
+  <si>
+    <t>    &amp;:last-child {</t>
+  </si>
+  <si>
+    <t>@mixin clearfix {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:nth-child(#{$pColum}n) { // 5n</t>
+    </r>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>Hình ảnh cuối cùng trên 1 dòng thì mới có margin-bottom</t>
+  </si>
+  <si>
+    <t>Dòng cuối cùng thì không cần margin-bottom</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>margin-bottom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 0%;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>margin-bottom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: $pColumMargin;</t>
+    </r>
+  </si>
+  <si>
+    <t>&amp;: Đại diện cho phần bên ngoài</t>
+  </si>
+  <si>
+    <t>Hình ảnh cuối cùng trên 1 dòng thì không có margin-right</t>
+  </si>
+  <si>
+    <t>$columMargin : 1%;</t>
+  </si>
+  <si>
+    <t>        @include setWidth($colum, $columMargin);</t>
+  </si>
+  <si>
+    <t>Convert</t>
+  </si>
+  <si>
+    <t>style-01.css</t>
+  </si>
+  <si>
+    <t>  margin: 0px;</t>
+  </si>
+  <si>
+    <t>  padding: 0px; }</t>
+  </si>
+  <si>
+    <t>  margin: 40px;</t>
+  </si>
+  <si>
+    <t>  border: 2px solid #F0682D; }</t>
+  </si>
+  <si>
+    <t>  div.list-images div.image {</t>
+  </si>
+  <si>
+    <t>    float: left; }</t>
+  </si>
+  <si>
+    <t>    div.list-images div.image img {</t>
+  </si>
+  <si>
+    <t>      display: block;</t>
+  </si>
+  <si>
+    <t>      width: 100%; }</t>
+  </si>
+  <si>
+    <t>  div.list-images:after {</t>
+  </si>
+  <si>
+    <t>    content: "";</t>
+  </si>
+  <si>
+    <t>    display: table;</t>
+  </si>
+  <si>
+    <t>    clear: both; }</t>
+  </si>
+  <si>
+    <t>    float: left;</t>
+  </si>
+  <si>
+    <t>    margin-right: 1%; }</t>
+  </si>
+  <si>
+    <t>      margin-right: 0%;</t>
+  </si>
+  <si>
+    <t>      margin-bottom: 1%; }</t>
+  </si>
+  <si>
+    <t>    div.list-images div.image:last-child {</t>
+  </si>
+  <si>
+    <t>      margin-bottom: 0%; }</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>$colum       : 4;</t>
+  </si>
+  <si>
+    <t>    width: 24.25%;</t>
+  </si>
+  <si>
+    <t>    div.list-images div.image:nth-child(4n) {</t>
   </si>
 </sst>
 </file>
@@ -249,7 +457,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -337,11 +545,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -355,6 +753,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,13 +1006,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>455619</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>189690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -618,6 +1038,161 @@
         <a:xfrm>
           <a:off x="609600" y="18669000"/>
           <a:ext cx="12647619" cy="6476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C83E590-B1A1-5D3A-1E24-F59DF4A42F40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="5505450"/>
+          <a:ext cx="2609850" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA65549-C6BB-E753-04A4-203B71DBDAE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="6210300"/>
+          <a:ext cx="3362325" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>474667</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>27762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC3AC546-40AB-1722-CDD3-D16E58597437}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="21145500"/>
+          <a:ext cx="12666667" cy="6504762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -923,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C49BC83-9CEB-4CE7-A291-53ECD8C8B9AE}">
-  <dimension ref="A2:I98"/>
+  <dimension ref="A2:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,7 +1790,7 @@
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="10"/>
@@ -1271,7 +1846,7 @@
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C49" s="10"/>
@@ -1819,9 +2394,1383 @@
       <c r="H96" s="8"/>
       <c r="I96" s="9"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="25"/>
+      <c r="C101" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="25"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="25"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="25"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="20"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="25"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="20"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="25"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" s="20"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="25"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" s="20"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="25"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="26"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F109" s="18"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>80</v>
+      </c>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="25"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+    </row>
+    <row r="119" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C120" s="11"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2579C0-2D32-43E3-AF83-59205E093CB1}">
+  <dimension ref="A2:O111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="10"/>
+      <c r="I13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="15"/>
+      <c r="I27" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="19"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="15"/>
+      <c r="J28" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="20"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="15"/>
+      <c r="J29" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="22"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="15"/>
+      <c r="J33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="27"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="17"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="25"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="20"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="20"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="20"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="22"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="19"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="25"/>
+      <c r="C74" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="20"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="25"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="20"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="25"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="20"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="25"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="20"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="25"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="20"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="25"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="20"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="25"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="20"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="25"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="10"/>
+      <c r="G81" s="20"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="26"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F82" s="18"/>
+      <c r="G82" s="22"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="19"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="20"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="20"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="25"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="20"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="20"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="20"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="20"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="21"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="15"/>
+      <c r="B94" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="14"/>
+      <c r="I94" s="10"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="15"/>
+      <c r="B95" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="15"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="15"/>
+      <c r="B96" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="15"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="15"/>
+      <c r="B97" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="15"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="15"/>
+      <c r="B98" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="15"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="15"/>
+      <c r="B99" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="15"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="15"/>
+      <c r="B100" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="15"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="15"/>
+      <c r="B101" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="17"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="20"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="20"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="20"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="20"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="20"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="20"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="22"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/me/1.training_sass/10-exe-list.xlsx
+++ b/me/1.training_sass/10-exe-list.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55F7F94-9CAF-4D6F-9917-81409BFE8FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E82E250-899D-4244-82D1-8835220FA1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prepare" sheetId="1" r:id="rId1"/>
     <sheet name="Clearfix" sheetId="2" r:id="rId2"/>
     <sheet name="SetWidth" sheetId="3" r:id="rId3"/>
+    <sheet name="Media" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="131">
   <si>
     <t>Trang cung cấp hình ảnh: https://placeholder.com/</t>
   </si>
@@ -428,6 +429,87 @@
   <si>
     <t>    div.list-images div.image:nth-child(4n) {</t>
   </si>
+  <si>
+    <t>Màn hình &gt;1000px 5 cột, cách nhau 1%</t>
+  </si>
+  <si>
+    <t>Màn hình &gt;500px, &lt;1000px 3 cột, cách nhau 2%</t>
+  </si>
+  <si>
+    <t>Màn hình &lt;500px  1 cột, cách nhau 0%</t>
+  </si>
+  <si>
+    <t>        // @include setWidth($colum, $columMargin);</t>
+  </si>
+  <si>
+    <t>@media screen and (min-width: 1000px){</t>
+  </si>
+  <si>
+    <t>        @include setWidth(5, 1%);</t>
+  </si>
+  <si>
+    <t>@media screen and (min-width: 500px) and (max-width: 1000px){</t>
+  </si>
+  <si>
+    <t>        @include setWidth(3, 2%);</t>
+  </si>
+  <si>
+    <t>@media screen and (max-width: 500px){</t>
+  </si>
+  <si>
+    <t>        @include setWidth(1, 1%);</t>
+  </si>
+  <si>
+    <t>@media screen and (min-width: 1000px) {</t>
+  </si>
+  <si>
+    <t>  div.image {</t>
+  </si>
+  <si>
+    <t>    width: 19.2%;</t>
+  </si>
+  <si>
+    <t>    div.image:nth-child(5n) {</t>
+  </si>
+  <si>
+    <t>    div.image:last-child {</t>
+  </si>
+  <si>
+    <t>      margin-bottom: 0%; } }</t>
+  </si>
+  <si>
+    <t>@media screen and (min-width: 500px) and (max-width: 1000px) {</t>
+  </si>
+  <si>
+    <t>    width: 32%;</t>
+  </si>
+  <si>
+    <t>    margin-right: 2%; }</t>
+  </si>
+  <si>
+    <t>    div.image:nth-child(3n) {</t>
+  </si>
+  <si>
+    <t>      margin-bottom: 2%; }</t>
+  </si>
+  <si>
+    <t>@media screen and (max-width: 500px) {</t>
+  </si>
+  <si>
+    <t>    width: 100%;</t>
+  </si>
+  <si>
+    <t>    div.image:nth-child(1n) {</t>
+  </si>
+  <si>
+    <t>&gt;1000px</t>
+  </si>
+  <si>
+    <t>500px~1000px</t>
+  </si>
+  <si>
+    <t>&lt;500px</t>
+  </si>
 </sst>
 </file>
 
@@ -449,15 +531,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -735,11 +823,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -775,6 +892,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1204,6 +1325,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>176784</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A562DA8-E312-2B67-1B91-E6E57CF41C16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638176" y="22736176"/>
+          <a:ext cx="11382374" cy="5444108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>494339</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>123104</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5113F56A-7D82-22AB-F9DA-62F8F39F484F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="28641675"/>
+          <a:ext cx="7685714" cy="5771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561389</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>142225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C35550A-9E34-C6B4-47E4-4BC0D4399E9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="34947225"/>
+          <a:ext cx="4685714" cy="5200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2776,8 +3034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2579C0-2D32-43E3-AF83-59205E093CB1}">
   <dimension ref="A2:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3778,4 +4036,1185 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF042C4-DA59-4C6B-95AF-88122DBDCE32}">
+  <dimension ref="A2:L183"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="L196" sqref="L196"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="10"/>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="37"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="17"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="25"/>
+      <c r="C58" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="25"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="25"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="25"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="20"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="25"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="25"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="20"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="25"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="20"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="25"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="26"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F66" s="18"/>
+      <c r="G66" s="22"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="19"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="20"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="20"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="25"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="20"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="20"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="20"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="20"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="20"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="20"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="20"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="20"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="20"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="20"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="20"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="20"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="20"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="25"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="20"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="14"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="37"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="15"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="15"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="15"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="15"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="15"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="37"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="15"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="15"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="15"/>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="15"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="15"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="15"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="15"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="15"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="15"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="17"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C150" s="38"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/1.training_sass/10-exe-list.xlsx
+++ b/me/1.training_sass/10-exe-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E82E250-899D-4244-82D1-8835220FA1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABF8CEC-191E-4077-A036-07B4977BCA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prepare" sheetId="1" r:id="rId1"/>
@@ -1727,7 +1727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
@@ -1758,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C49BC83-9CEB-4CE7-A291-53ECD8C8B9AE}">
   <dimension ref="A2:I129"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:G109"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="N104" sqref="N104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4042,7 +4042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF042C4-DA59-4C6B-95AF-88122DBDCE32}">
   <dimension ref="A2:L183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+    <sheetView topLeftCell="A155" workbookViewId="0">
       <selection activeCell="L196" sqref="L196"/>
     </sheetView>
   </sheetViews>
